--- a/results/Sr90Y90/Sr90Y90_R_30_cm_Nr_2000000000_ISO_model_det3  - Unfolded Fluence Spectrum.xlsx
+++ b/results/Sr90Y90/Sr90Y90_R_30_cm_Nr_2000000000_ISO_model_det3  - Unfolded Fluence Spectrum.xlsx
@@ -520,31 +520,31 @@
         <v>0.2699725673075166</v>
       </c>
       <c r="F2" t="n">
-        <v>26.17468919068803</v>
+        <v>26.1813690087763</v>
       </c>
       <c r="G2" t="n">
-        <v>22.04240222895502</v>
+        <v>22.08919175257506</v>
       </c>
       <c r="H2" t="n">
-        <v>30.44939404451074</v>
+        <v>30.41838090909802</v>
       </c>
       <c r="I2" t="n">
-        <v>3.354560146641247</v>
+        <v>3.355703362776727</v>
       </c>
       <c r="J2" t="n">
-        <v>2.052205918080781</v>
+        <v>2.04995262557871</v>
       </c>
       <c r="K2" t="n">
-        <v>4.977821345674847</v>
+        <v>4.897767566540358</v>
       </c>
       <c r="L2" t="n">
-        <v>0.245169518482277</v>
+        <v>0.2452766279584661</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1624141419862412</v>
+        <v>0.1626529843809138</v>
       </c>
       <c r="N2" t="n">
-        <v>0.3524478371468076</v>
+        <v>0.3486432408210731</v>
       </c>
     </row>
     <row r="3">
@@ -566,31 +566,31 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9773600046945845</v>
+        <v>0.9772969054597146</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04793143092206377</v>
+        <v>0.03730947449461339</v>
       </c>
       <c r="H3" t="n">
-        <v>2.006872801834661</v>
+        <v>1.999502663789804</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8417297513527958</v>
+        <v>0.8414889294528893</v>
       </c>
       <c r="J3" t="n">
-        <v>0.04347842295525301</v>
+        <v>0.03453000811037173</v>
       </c>
       <c r="K3" t="n">
-        <v>1.69828403316365</v>
+        <v>1.690550276461255</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9934774996853737</v>
+        <v>0.9934997885860725</v>
       </c>
       <c r="M3" t="n">
-        <v>0.04878313284416091</v>
+        <v>0.03765563306937082</v>
       </c>
       <c r="N3" t="n">
-        <v>2.038011769606274</v>
+        <v>2.030154005518863</v>
       </c>
     </row>
     <row r="4">
@@ -612,31 +612,31 @@
         <v>0.2699725673075166</v>
       </c>
       <c r="F4" t="n">
-        <v>27.15204919538261</v>
+        <v>27.15866591423602</v>
       </c>
       <c r="G4" t="n">
-        <v>22.09033365987708</v>
+        <v>22.12650122706968</v>
       </c>
       <c r="H4" t="n">
-        <v>32.4562668463454</v>
+        <v>32.41788357288782</v>
       </c>
       <c r="I4" t="n">
-        <v>4.196289897994043</v>
+        <v>4.197192292229616</v>
       </c>
       <c r="J4" t="n">
-        <v>2.095684341036034</v>
+        <v>2.084482633689082</v>
       </c>
       <c r="K4" t="n">
-        <v>6.676105378838498</v>
+        <v>6.588317843001612</v>
       </c>
       <c r="L4" t="n">
-        <v>1.238647018167651</v>
+        <v>1.238776416544539</v>
       </c>
       <c r="M4" t="n">
-        <v>0.2111972748304022</v>
+        <v>0.2003086174502846</v>
       </c>
       <c r="N4" t="n">
-        <v>2.390459606753081</v>
+        <v>2.378797246339936</v>
       </c>
     </row>
   </sheetData>
